--- a/game flow/Bundesliga_GameFlow.xlsx
+++ b/game flow/Bundesliga_GameFlow.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.657439446366782</v>
+        <v>5.686688311688312</v>
       </c>
       <c r="C2" t="n">
-        <v>8.809773123909249</v>
+        <v>8.697986577181208</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8115172554625281</v>
+        <v>0.8096501572327044</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04870084757537863</v>
+        <v>0.04943170354428677</v>
       </c>
       <c r="G2" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -527,97 +527,97 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.598709677419355</v>
+        <v>4.584882280049566</v>
       </c>
       <c r="C4" t="n">
-        <v>8.123430962343097</v>
+        <v>8.150495049504951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5668305057872205</v>
+        <v>0.5480639856480789</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08548387096774193</v>
+        <v>0.0842441740565065</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.919540229885057</v>
+        <v>5.792957746478873</v>
       </c>
       <c r="C5" t="n">
-        <v>8.072124756335283</v>
+        <v>7.952768729641694</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6507310870947235</v>
+        <v>0.5308977846871357</v>
       </c>
       <c r="E5" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05825951967856817</v>
+        <v>0.07214939168159955</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bayer 04 Leverkusen</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.888524590163934</v>
+        <v>4.919540229885057</v>
       </c>
       <c r="C6" t="n">
-        <v>10.74131274131274</v>
+        <v>8.072124756335283</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6220499372933531</v>
+        <v>0.6506866734486266</v>
       </c>
       <c r="E6" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05697272068882273</v>
+        <v>0.05817351598173516</v>
       </c>
       <c r="G6" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Bayer 04 Leverkusen</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.943368107302534</v>
+        <v>5.888524590163934</v>
       </c>
       <c r="C7" t="n">
-        <v>7.996592844974447</v>
+        <v>10.74131274131274</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5294671689989235</v>
+        <v>0.6220499372933531</v>
       </c>
       <c r="E7" t="n">
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0716673220605584</v>
+        <v>0.05697272068882273</v>
       </c>
       <c r="G7" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>0.07637208401897203</v>
       </c>
       <c r="G9" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="10">
@@ -692,7 +692,7 @@
         <v>0.134473606605721</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.505766062602965</v>
+        <v>6.455538221528861</v>
       </c>
       <c r="C11" t="n">
-        <v>9.192118226600986</v>
+        <v>8.92824074074074</v>
       </c>
       <c r="D11" t="n">
-        <v>0.452226481863757</v>
+        <v>0.4514075541094921</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07665630232001913</v>
+        <v>0.07709985062622084</v>
       </c>
       <c r="G11" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="12">
@@ -767,7 +767,7 @@
         <v>0.07307482250136538</v>
       </c>
       <c r="G13" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="14">
@@ -792,7 +792,7 @@
         <v>0.08279445727482679</v>
       </c>
       <c r="G14" t="n">
-        <v>-26</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +817,7 @@
         <v>0.1088957055214724</v>
       </c>
       <c r="G15" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
@@ -883,7 +883,7 @@
         <v>8.925000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4465770953294946</v>
+        <v>0.4466342462247249</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>

--- a/game flow/Bundesliga_GameFlow.xlsx
+++ b/game flow/Bundesliga_GameFlow.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.686688311688312</v>
+        <v>5.691950464396285</v>
       </c>
       <c r="C2" t="n">
-        <v>8.697986577181208</v>
+        <v>8.486024844720497</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8096501572327044</v>
+        <v>0.806721111424012</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04943170354428677</v>
+        <v>0.04927499037597844</v>
       </c>
       <c r="G2" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.769985974754558</v>
+        <v>5.840755735492578</v>
       </c>
       <c r="C3" t="n">
-        <v>7.088850174216028</v>
+        <v>7.206666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6107102164830991</v>
+        <v>0.6086585365853658</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07176079734219269</v>
+        <v>0.07163557326571274</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -527,72 +527,72 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.584882280049566</v>
+        <v>4.561382598331347</v>
       </c>
       <c r="C4" t="n">
-        <v>8.150495049504951</v>
+        <v>8.403883495145632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5480639856480789</v>
+        <v>0.5543060498220641</v>
       </c>
       <c r="E4" t="n">
         <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0842441740565065</v>
+        <v>0.08453184619900206</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>VfB Stuttgart</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.792957746478873</v>
+        <v>4.853424657534247</v>
       </c>
       <c r="C5" t="n">
-        <v>7.952768729641694</v>
+        <v>8.082397003745319</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5308977846871357</v>
+        <v>0.6492954324586978</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07214939168159955</v>
+        <v>0.05803063457330416</v>
       </c>
       <c r="G5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VfB Stuttgart</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.919540229885057</v>
+        <v>5.807639836289223</v>
       </c>
       <c r="C6" t="n">
-        <v>8.072124756335283</v>
+        <v>7.919129082426127</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6506866734486266</v>
+        <v>0.5463829787234042</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05817351598173516</v>
+        <v>0.07109340416113324</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -602,169 +602,169 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.888524590163934</v>
+        <v>5.95253164556962</v>
       </c>
       <c r="C7" t="n">
-        <v>10.74131274131274</v>
+        <v>10.66846846846847</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6220499372933531</v>
+        <v>0.6293548387096775</v>
       </c>
       <c r="E7" t="n">
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05697272068882273</v>
+        <v>0.05695773374519702</v>
       </c>
       <c r="G7" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SC Freiburg</t>
+          <t>Eintracht Frankfurt</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.484892086330936</v>
+        <v>5.032846715328467</v>
       </c>
       <c r="C8" t="n">
-        <v>7.957356076759062</v>
+        <v>8.712707182320441</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4701734593146242</v>
+        <v>0.5190810946522721</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07686112069957428</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="G8" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Eintracht Frankfurt</t>
+          <t>SC Freiburg</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5.028097062579821</v>
+        <v>5.659634317862166</v>
       </c>
       <c r="C9" t="n">
-        <v>8.547528517110266</v>
+        <v>7.827586206896552</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5281294870121394</v>
+        <v>0.4634441901171402</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07637208401897203</v>
+        <v>0.07758811793393926</v>
       </c>
       <c r="G9" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1. FC Union Berlin</t>
+          <t>Hamburger SV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.395378690629012</v>
+        <v>4.889795918367347</v>
       </c>
       <c r="C10" t="n">
-        <v>5.951162790697675</v>
+        <v>9.239406779661017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3481136329475424</v>
+        <v>0.3734809613826627</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>0.134473606605721</v>
+        <v>0.08522400092134055</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1. FC Köln</t>
+          <t>1. FC Union Berlin</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.455538221528861</v>
+        <v>6.347665847665848</v>
       </c>
       <c r="C11" t="n">
-        <v>8.92824074074074</v>
+        <v>5.890109890109891</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4514075541094921</v>
+        <v>0.3512694748990191</v>
       </c>
       <c r="E11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07709985062622084</v>
+        <v>0.13529081202585</v>
       </c>
       <c r="G11" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hamburger SV</t>
+          <t>FC Augsburg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.975644699140402</v>
+        <v>6.139064475347661</v>
       </c>
       <c r="C12" t="n">
-        <v>9.405405405405405</v>
+        <v>6.435897435897436</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3656517468780693</v>
+        <v>0.4537301793605407</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08481980342191482</v>
+        <v>0.08169755455642067</v>
       </c>
       <c r="G12" t="n">
-        <v>-18</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Borussia M'gladbach</t>
+          <t>1. FC Köln</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.733170134638923</v>
+        <v>6.418154761904762</v>
       </c>
       <c r="C13" t="n">
-        <v>9.263157894736842</v>
+        <v>8.719298245614034</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3720460752879706</v>
+        <v>0.4478956568508807</v>
       </c>
       <c r="E13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07307482250136538</v>
+        <v>0.07765486725663717</v>
       </c>
       <c r="G13" t="n">
         <v>-7</v>
@@ -773,26 +773,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FC Augsburg</t>
+          <t>Borussia M'gladbach</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.074705111402359</v>
+        <v>5.821301775147929</v>
       </c>
       <c r="C14" t="n">
-        <v>6.401433691756273</v>
+        <v>9.145129224652088</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4515209125475285</v>
+        <v>0.3837955535182214</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08279445727482679</v>
+        <v>0.07205240174672489</v>
       </c>
       <c r="G14" t="n">
-        <v>-27</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="15">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.133848133848134</v>
+        <v>5.252475247524752</v>
       </c>
       <c r="C15" t="n">
-        <v>5.468627450980392</v>
+        <v>5.6875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4218771856203665</v>
+        <v>0.4228187919463087</v>
       </c>
       <c r="E15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1088957055214724</v>
+        <v>0.1080426356589147</v>
       </c>
       <c r="G15" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="16">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.378989361702128</v>
+        <v>5.378002528445006</v>
       </c>
       <c r="C16" t="n">
-        <v>8.928260869565218</v>
+        <v>8.911949685534591</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4141754385964913</v>
+        <v>0.4011269820469139</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09308390022675737</v>
+        <v>0.09280717096633144</v>
       </c>
       <c r="G16" t="n">
-        <v>-16</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="17">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.175</v>
+        <v>5.15158924205379</v>
       </c>
       <c r="C17" t="n">
-        <v>8.072824156305506</v>
+        <v>8.039182282793867</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4835692618806876</v>
+        <v>0.4706162832280367</v>
       </c>
       <c r="E17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0925305478912101</v>
+        <v>0.09264356905552919</v>
       </c>
       <c r="G17" t="n">
-        <v>-25</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="18">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.912532637075718</v>
+        <v>6.943488943488943</v>
       </c>
       <c r="C18" t="n">
-        <v>8.925000000000001</v>
+        <v>9.004395604395604</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4466342462247249</v>
+        <v>0.4341364017739422</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09495959166312208</v>
+        <v>0.09461530601818739</v>
       </c>
       <c r="G18" t="n">
-        <v>-29</v>
+        <v>-33</v>
       </c>
     </row>
     <row r="19">
@@ -902,22 +902,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.662087912087912</v>
+        <v>5.647905759162303</v>
       </c>
       <c r="C19" t="n">
-        <v>8.330864197530865</v>
+        <v>8.47877358490566</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3223193623039342</v>
+        <v>0.3294277257030094</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09627207325049052</v>
+        <v>0.09476278496611214</v>
       </c>
       <c r="G19" t="n">
-        <v>-16</v>
+        <v>-18</v>
       </c>
     </row>
   </sheetData>
